--- a/data/case1/20/P1_13.xlsx
+++ b/data/case1/20/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.043195323676101793</v>
+        <v>0.085453833382430844</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999997244673011</v>
+        <v>-0.0099999996170581085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999997276226651</v>
+        <v>-0.0089999996211798106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399526159148891</v>
+        <v>0.28399330306465131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999997356712242</v>
+        <v>-0.0059999996321282723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999997264732485</v>
+        <v>-0.0059999996184139093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999678185887</v>
+        <v>-0.02041965385223854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.056768286418196645</v>
+        <v>-0.019999999543082403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999997198376676</v>
+        <v>-0.0059999996060602356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999997183410869</v>
+        <v>-0.0059999996010517975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999997233539091</v>
+        <v>-0.004499999607773475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999997181070519</v>
+        <v>-0.0059999995990240862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999997175141928</v>
+        <v>-0.0059999995939135076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.014558622141922051</v>
+        <v>-0.011999999562956276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999997179147613</v>
+        <v>-0.0059999995913777582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.034748799561779453</v>
+        <v>0.001488976235449968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999997175959052</v>
+        <v>-0.0059999995887816127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999707227424</v>
+        <v>-0.0089999995736445015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999997274583521</v>
+        <v>-0.0089999996214342737</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999997250842512</v>
+        <v>-0.0089999996147831496</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999997247263153</v>
+        <v>-0.034240814966644884</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999997244545327</v>
+        <v>-0.0089999996130423199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999997252174779</v>
+        <v>-0.0089999996178482533</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999609619643</v>
+        <v>-0.041999999449615188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999607497784</v>
+        <v>-0.041999999446694858</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999725933236</v>
+        <v>-0.0059999996172059866</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999997251551918</v>
+        <v>-0.0059999996155859492</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999997223956214</v>
+        <v>0.011784857688669881</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999700364583</v>
+        <v>-0.011999999574221931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.024081718185952283</v>
+        <v>-0.019999999532218204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.023300579463521487</v>
+        <v>-0.016352708708746277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999665749058</v>
+        <v>-0.020999999522738122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999997161384044</v>
+        <v>-0.0059999995962245478</v>
       </c>
     </row>
   </sheetData>
